--- a/data/excel_data.xlsx
+++ b/data/excel_data.xlsx
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -95,6 +95,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0060b212"/>
+        <bgColor rgb="0060b212"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+        <bgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -180,19 +192,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +780,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -841,7 +859,11 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H2" s="9" t="n"/>
+      <c r="H2" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="8" t="n">
@@ -871,7 +893,11 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H3" s="9" t="n"/>
+      <c r="H3" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="8" t="n">
@@ -901,7 +927,11 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H4" s="9" t="n"/>
+      <c r="H4" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="8" t="n">
@@ -931,7 +961,11 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H5" s="9" t="n"/>
+      <c r="H5" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="n">
@@ -961,7 +995,11 @@
           <t>fail</t>
         </is>
       </c>
-      <c r="H6" s="10" t="n"/>
+      <c r="H6" s="15" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
       <c r="A7" s="5" t="n"/>

--- a/data/excel_data.xlsx
+++ b/data/excel_data.xlsx
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -89,12 +89,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF60B212"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -170,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -192,23 +186,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +771,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -794,38 +785,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Principal</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Rate of Interest</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Period</t>
         </is>
       </c>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Maturity Value</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -859,7 +850,7 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H2" s="14" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -893,7 +884,7 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H3" s="14" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -927,7 +918,7 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H4" s="14" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -961,7 +952,7 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="H5" s="14" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -995,7 +986,7 @@
           <t>fail</t>
         </is>
       </c>
-      <c r="H6" s="15" t="inlineStr">
+      <c r="H6" s="14" t="inlineStr">
         <is>
           <t>fail</t>
         </is>

--- a/data/excel_data.xlsx
+++ b/data/excel_data.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="600" firstSheet="2" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -89,6 +89,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF60B212"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -189,6 +195,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -196,10 +206,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +589,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -711,57 +772,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>Jane</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -771,52 +781,53 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M10" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="19.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18.140625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" min="2" max="2"/>
+    <col width="11.42578125" customWidth="1" min="3" max="3"/>
+    <col width="14.7109375" customWidth="1" min="4" max="4"/>
+    <col width="30" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="11.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Principal</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>Rate of Interest</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>Period</t>
-        </is>
-      </c>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Maturity Value</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>FD Amount (Rs.)</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>FD Period</t>
+        </is>
+      </c>
+      <c r="C1" s="14" t="n"/>
+      <c r="D1" s="13" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="E1" s="13" t="inlineStr">
+        <is>
+          <t>Compounding Frequency</t>
+        </is>
+      </c>
+      <c r="F1" s="13" t="inlineStr">
+        <is>
+          <t>Maturity Amount</t>
+        </is>
+      </c>
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
@@ -827,30 +838,30 @@
         <v>20000</v>
       </c>
       <c r="B2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>year(s)</t>
-        </is>
-      </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>Simple Interest</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>24000</v>
+        <v>0.2</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H2" s="13" t="inlineStr">
+      <c r="H2" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -861,30 +872,30 @@
         <v>40000</v>
       </c>
       <c r="B3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>year(s)</t>
-        </is>
-      </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
-          <t>Simple Interest</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="F3" s="8" t="n">
-        <v>70000</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -895,30 +906,30 @@
         <v>50000</v>
       </c>
       <c r="B4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>month(s)</t>
-        </is>
-      </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>Simple Interest</t>
+          <t>Half Yearly</t>
         </is>
       </c>
       <c r="F4" s="8" t="n">
-        <v>51250</v>
+        <v>0.6</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -929,30 +940,30 @@
         <v>75000</v>
       </c>
       <c r="B5" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>month(s)</t>
-        </is>
-      </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>Simple Interest</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="F5" s="8" t="n">
-        <v>76500</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="6" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
+      <c r="H5" s="15" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -960,33 +971,33 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="n">
-        <v>75000</v>
+        <v>85000</v>
       </c>
       <c r="B6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>day(s)</t>
-        </is>
-      </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
-          <t>Simple Interest</t>
+          <t>Yearly</t>
         </is>
       </c>
       <c r="F6" s="8" t="n">
-        <v>75045.32000000001</v>
+        <v>2.1</v>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="H6" s="14" t="inlineStr">
+      <c r="H6" s="16" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
@@ -1014,7 +1025,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1030,7 +1041,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
